--- a/scored_sorted.xlsx
+++ b/scored_sorted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wesleygardiner/Documents/GitHub/rtweetbotometer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Documents\GitHub\rtweetbotometer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A1720B4-2E4D-764C-9038-A47148C55121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C39509-9393-489A-A93A-A9FF24771FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14520"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scored_sorted" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>usernames</t>
   </si>
@@ -263,12 +263,15 @@
   </si>
   <si>
     <t>bot</t>
+  </si>
+  <si>
+    <t>botometer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1113,19 +1116,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1138,11 @@
       <c r="D1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1146,8 +1152,14 @@
       <c r="C2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1157,8 +1169,14 @@
       <c r="C3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1168,8 +1186,14 @@
       <c r="C4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1179,8 +1203,14 @@
       <c r="C5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1190,8 +1220,14 @@
       <c r="C6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1201,8 +1237,14 @@
       <c r="C7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1212,8 +1254,14 @@
       <c r="C8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1223,8 +1271,14 @@
       <c r="C9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1234,8 +1288,14 @@
       <c r="C10">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1245,8 +1305,14 @@
       <c r="C11">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1256,8 +1322,14 @@
       <c r="C12">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1267,8 +1339,14 @@
       <c r="C13">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1278,8 +1356,14 @@
       <c r="C14">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1289,8 +1373,14 @@
       <c r="C15">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1300,8 +1390,14 @@
       <c r="C16">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1314,8 +1410,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1328,8 +1427,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1342,8 +1444,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1356,8 +1461,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1370,8 +1478,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1384,8 +1495,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1398,8 +1512,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1412,8 +1529,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1426,8 +1546,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1440,8 +1563,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1454,8 +1580,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1468,8 +1597,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1482,8 +1614,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1496,8 +1631,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1510,8 +1648,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1524,8 +1665,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1538,8 +1682,11 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1552,8 +1699,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1566,8 +1716,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1580,8 +1733,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1594,8 +1750,11 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1608,8 +1767,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1622,8 +1784,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1636,8 +1801,11 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1650,8 +1818,11 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1664,8 +1835,11 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1678,8 +1852,11 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1692,8 +1869,11 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1706,8 +1886,11 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1720,8 +1903,11 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1734,8 +1920,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1748,8 +1937,11 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1762,8 +1954,11 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1776,8 +1971,11 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1790,8 +1988,11 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1804,8 +2005,11 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1818,8 +2022,11 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1832,8 +2039,11 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1846,8 +2056,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1860,8 +2073,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1874,8 +2090,11 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1888,8 +2107,11 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1902,8 +2124,11 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1916,8 +2141,11 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1930,8 +2158,11 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1944,8 +2175,11 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1958,8 +2192,11 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1972,8 +2209,11 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1986,8 +2226,11 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2000,8 +2243,11 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2014,8 +2260,11 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2028,8 +2277,11 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2042,8 +2294,11 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2056,8 +2311,11 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2070,8 +2328,11 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2084,8 +2345,11 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2098,8 +2362,11 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2112,8 +2379,11 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2126,8 +2396,11 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2140,8 +2413,11 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2154,8 +2430,11 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2168,8 +2447,11 @@
       <c r="D78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2181,6 +2463,9 @@
       </c>
       <c r="D79">
         <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
